--- a/biology/Écologie/Robin_des_Bois_(association)/Robin_des_Bois_(association).xlsx
+++ b/biology/Écologie/Robin_des_Bois_(association)/Robin_des_Bois_(association).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robin des Bois est une association écologiste française créée en 1985 à Paris. Elle publie de nombreux dossiers sur les problèmes d'écologie et de pollution. L’association Robin des Bois a édité une version française de la Désobéissance civile en 1989. Elle commercialise également divers produits originaux tels que l'huile de jojoba et l'ivoire végétal. 
 Robin des Bois a comme vocation de protéger l’Homme et l’environnement, notamment les espèces menacées comme l'éléphant et la baleine. Cette double visée amène Robin des Bois à prendre en considération les conditions de travail et de vie sur des lieux aussi divers que les cargos et les friches industrielles polluées, et à aider, dans les limites de sa disponibilité et de ses compétences, sans autre condition préalable, des personnes isolées ou regroupées confrontées à des pollutions de toutes sortes. 
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cargo de la honte, Stock, 2010  (ISBN 978-2-234-06351-8)
 L'Atlas de la France toxique, Arthaud, 2016  (ISBN 978-2-0813-6379-3)
